--- a/target/classes/testdata/atriumID_datasheet.xlsx
+++ b/target/classes/testdata/atriumID_datasheet.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\durga\eclipse-workspace\Salesforce_POC\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DEC5B4-4D1F-4C47-96E0-84D6A8A6347F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5D78E6-9CB8-43FA-A342-743CC566DBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{51FA5DEF-5FD8-4575-9CB6-9112EE208D2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51FA5DEF-5FD8-4575-9CB6-9112EE208D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="TableData" sheetId="2" r:id="rId2"/>
+    <sheet name="TableData" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -50,196 +50,197 @@
     <t>SeachType</t>
   </si>
   <si>
-    <t>4/17/2022 10:46 AM</t>
-  </si>
-  <si>
-    <t>Lillie Nguyen-DP0039d</t>
-  </si>
-  <si>
-    <t>85035648</t>
+    <t>4/18/2022 2:57 AM</t>
+  </si>
+  <si>
+    <t>Lillie Nguyen-DP0040d</t>
+  </si>
+  <si>
+    <t>85035678</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>Michelle Avent-DP0039d</t>
-  </si>
-  <si>
-    <t>85035649</t>
-  </si>
-  <si>
-    <t>MARLENE ROSANA-DP0039d</t>
-  </si>
-  <si>
-    <t>85035650</t>
-  </si>
-  <si>
-    <t>Rediscover Health LLC-DP0039d</t>
-  </si>
-  <si>
-    <t>85035651</t>
-  </si>
-  <si>
-    <t>Olivia Moeller Nutrition-DP0039d</t>
-  </si>
-  <si>
-    <t>85035652</t>
-  </si>
-  <si>
-    <t>Melanie Phillips-DP0039d</t>
-  </si>
-  <si>
-    <t>85035653</t>
-  </si>
-  <si>
-    <t>Healthy Happy Life Clinic-DP0039d</t>
-  </si>
-  <si>
-    <t>85035654</t>
-  </si>
-  <si>
-    <t>Cassie Booth-DP0039d</t>
-  </si>
-  <si>
-    <t>85035655</t>
-  </si>
-  <si>
-    <t>Mackenzie Norman-DP0039d</t>
-  </si>
-  <si>
-    <t>85035656</t>
-  </si>
-  <si>
-    <t>Erin Macalik/Self-DP0039d</t>
-  </si>
-  <si>
-    <t>85035657</t>
-  </si>
-  <si>
-    <t>Keely Puchalski-DP0039d</t>
-  </si>
-  <si>
-    <t>85035658</t>
-  </si>
-  <si>
-    <t>Ashley Cerullo-DP0039d</t>
-  </si>
-  <si>
-    <t>85035659</t>
-  </si>
-  <si>
-    <t>Crossroads-DP0039d</t>
-  </si>
-  <si>
-    <t>85035660</t>
-  </si>
-  <si>
-    <t>Please select...-DP0039d</t>
-  </si>
-  <si>
-    <t>85035661</t>
-  </si>
-  <si>
-    <t>Nuvitru Wellness-DP0039d</t>
-  </si>
-  <si>
-    <t>85035662</t>
-  </si>
-  <si>
-    <t>Elizabeth Pimentel-DP0039d</t>
-  </si>
-  <si>
-    <t>85035663</t>
-  </si>
-  <si>
-    <t>Alexis Rheinwald-Jones-DP0039d</t>
-  </si>
-  <si>
-    <t>85035664</t>
-  </si>
-  <si>
-    <t>Blue Gem Music, LLC-DP0039d</t>
-  </si>
-  <si>
-    <t>85035665</t>
-  </si>
-  <si>
-    <t>Jennifer Gauss-DP0039d</t>
-  </si>
-  <si>
-    <t>85035666</t>
-  </si>
-  <si>
-    <t>Margaret Geagan-DP0039d</t>
-  </si>
-  <si>
-    <t>85035667</t>
-  </si>
-  <si>
-    <t>University of Minnesota-College of Pharmacy-DP0039d</t>
-  </si>
-  <si>
-    <t>85035668</t>
-  </si>
-  <si>
-    <t>Lanae Wiater-DP0039d</t>
-  </si>
-  <si>
-    <t>85035669</t>
-  </si>
-  <si>
-    <t>Danielle Perrodin-DP0039d</t>
-  </si>
-  <si>
-    <t>85035670</t>
-  </si>
-  <si>
-    <t>Obugo Douglas-DP0039d</t>
-  </si>
-  <si>
-    <t>85035671</t>
-  </si>
-  <si>
-    <t>Kristi Schlacht-DP0039d</t>
-  </si>
-  <si>
-    <t>85035672</t>
-  </si>
-  <si>
-    <t>Lori Krustchinsky-DP0039d</t>
-  </si>
-  <si>
-    <t>85035673</t>
-  </si>
-  <si>
-    <t>Melissa De Brito-DP0039d</t>
-  </si>
-  <si>
-    <t>85035674</t>
-  </si>
-  <si>
-    <t>Jessica Beal-DP0039d</t>
-  </si>
-  <si>
-    <t>85035675</t>
-  </si>
-  <si>
-    <t>Christine Williams-DP0039d</t>
-  </si>
-  <si>
-    <t>85035676</t>
-  </si>
-  <si>
-    <t>Cynthia Comber-DP0039d</t>
-  </si>
-  <si>
-    <t>85035677</t>
+    <t>Michelle Avent-DP0040d</t>
+  </si>
+  <si>
+    <t>85035679</t>
+  </si>
+  <si>
+    <t>MARLENE ROSANA-DP0040d</t>
+  </si>
+  <si>
+    <t>85035680</t>
+  </si>
+  <si>
+    <t>Rediscover Health LLC-DP0040d</t>
+  </si>
+  <si>
+    <t>85035681</t>
+  </si>
+  <si>
+    <t>Olivia Moeller Nutrition-DP0040d</t>
+  </si>
+  <si>
+    <t>85035682</t>
+  </si>
+  <si>
+    <t>Melanie Phillips-DP0040d</t>
+  </si>
+  <si>
+    <t>85035683</t>
+  </si>
+  <si>
+    <t>Healthy Happy Life Clinic-DP0040d</t>
+  </si>
+  <si>
+    <t>85035684</t>
+  </si>
+  <si>
+    <t>Cassie Booth-DP0040d</t>
+  </si>
+  <si>
+    <t>85035685</t>
+  </si>
+  <si>
+    <t>Mackenzie Norman-DP0040d</t>
+  </si>
+  <si>
+    <t>85035686</t>
+  </si>
+  <si>
+    <t>Erin Macalik/Self-DP0040d</t>
+  </si>
+  <si>
+    <t>85035687</t>
+  </si>
+  <si>
+    <t>Keely Puchalski-DP0040d</t>
+  </si>
+  <si>
+    <t>85035688</t>
+  </si>
+  <si>
+    <t>Ashley Cerullo-DP0040d</t>
+  </si>
+  <si>
+    <t>85035689</t>
+  </si>
+  <si>
+    <t>Crossroads-DP0040d</t>
+  </si>
+  <si>
+    <t>85035690</t>
+  </si>
+  <si>
+    <t>Please select...-DP0040d</t>
+  </si>
+  <si>
+    <t>85035691</t>
+  </si>
+  <si>
+    <t>Nuvitru Wellness-DP0040d</t>
+  </si>
+  <si>
+    <t>85035692</t>
+  </si>
+  <si>
+    <t>Elizabeth Pimentel-DP0040d</t>
+  </si>
+  <si>
+    <t>85035693</t>
+  </si>
+  <si>
+    <t>Alexis Rheinwald-Jones-DP0040d</t>
+  </si>
+  <si>
+    <t>85035694</t>
+  </si>
+  <si>
+    <t>Blue Gem Music, LLC-DP0040d</t>
+  </si>
+  <si>
+    <t>85035695</t>
+  </si>
+  <si>
+    <t>Jennifer Gauss-DP0040d</t>
+  </si>
+  <si>
+    <t>85035696</t>
+  </si>
+  <si>
+    <t>Margaret Geagan-DP0040d</t>
+  </si>
+  <si>
+    <t>85035697</t>
+  </si>
+  <si>
+    <t>University of Minnesota-College of Pharmacy-DP0040d</t>
+  </si>
+  <si>
+    <t>85035698</t>
+  </si>
+  <si>
+    <t>Lanae Wiater-DP0040d</t>
+  </si>
+  <si>
+    <t>85035699</t>
+  </si>
+  <si>
+    <t>Danielle Perrodin-DP0040d</t>
+  </si>
+  <si>
+    <t>85035700</t>
+  </si>
+  <si>
+    <t>Obugo Douglas-DP0040d</t>
+  </si>
+  <si>
+    <t>85035701</t>
+  </si>
+  <si>
+    <t>Kristi Schlacht-DP0040d</t>
+  </si>
+  <si>
+    <t>85035702</t>
+  </si>
+  <si>
+    <t>Lori Krustchinsky-DP0040d</t>
+  </si>
+  <si>
+    <t>85035703</t>
+  </si>
+  <si>
+    <t>Melissa De Brito-DP0040d</t>
+  </si>
+  <si>
+    <t>85035704</t>
+  </si>
+  <si>
+    <t>Jessica Beal-DP0040d</t>
+  </si>
+  <si>
+    <t>85035705</t>
+  </si>
+  <si>
+    <t>Christine Williams-DP0040d</t>
+  </si>
+  <si>
+    <t>85035706</t>
+  </si>
+  <si>
+    <t>Cynthia Comber-DP0040d</t>
+  </si>
+  <si>
+    <t>85035707</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAA85BA-D311-4AFD-9430-AE35636BB10D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,36 +603,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="50.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="50.19140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.6015625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -645,7 +644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -659,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -673,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -687,7 +686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -701,7 +700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -715,7 +714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -729,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -743,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -757,7 +756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -771,7 +770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -785,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -799,7 +798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -813,7 +812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -827,7 +826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -841,7 +840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -855,7 +854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -869,7 +868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -883,7 +882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -897,7 +896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -911,7 +910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -925,7 +924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -939,7 +938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -953,7 +952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -967,7 +966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -981,7 +980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -995,7 +994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1052,6 +1051,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/target/classes/testdata/atriumID_datasheet.xlsx
+++ b/target/classes/testdata/atriumID_datasheet.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\durga\eclipse-workspace\Salesforce_POC\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B17282-BD2A-44D5-AF01-4F7D5D7C04DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC498AF-E340-4BA5-BB51-6B81970A48E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51FA5DEF-5FD8-4575-9CB6-9112EE208D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TableData" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,8 +35,212 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
+  <si>
+    <t>CreatedDate</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>AtriumID</t>
+  </si>
+  <si>
+    <t>SeachType</t>
+  </si>
+  <si>
+    <t>4/21/2022 10:32 AM</t>
+  </si>
+  <si>
+    <t>Lillie Nguyen-DP0050d</t>
+  </si>
+  <si>
+    <t>85037252</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Michelle Avent-DP0050d</t>
+  </si>
+  <si>
+    <t>85037253</t>
+  </si>
+  <si>
+    <t>MARLENE ROSANA-DP0050d</t>
+  </si>
+  <si>
+    <t>85037254</t>
+  </si>
+  <si>
+    <t>Rediscover Health LLC-DP0050d</t>
+  </si>
+  <si>
+    <t>85037255</t>
+  </si>
+  <si>
+    <t>Olivia Moeller Nutrition-DP0050d</t>
+  </si>
+  <si>
+    <t>85037256</t>
+  </si>
+  <si>
+    <t>Melanie Phillips-DP0050d</t>
+  </si>
+  <si>
+    <t>85037257</t>
+  </si>
+  <si>
+    <t>Healthy Happy Life Clinic-DP0050d</t>
+  </si>
+  <si>
+    <t>85037258</t>
+  </si>
+  <si>
+    <t>Cassie Booth-DP0050d</t>
+  </si>
+  <si>
+    <t>85037259</t>
+  </si>
+  <si>
+    <t>Mackenzie Norman-DP0050d</t>
+  </si>
+  <si>
+    <t>85037260</t>
+  </si>
+  <si>
+    <t>Erin Macalik/Self-DP0050d</t>
+  </si>
+  <si>
+    <t>85037261</t>
+  </si>
+  <si>
+    <t>Keely Puchalski-DP0050d</t>
+  </si>
+  <si>
+    <t>85037262</t>
+  </si>
+  <si>
+    <t>Ashley Cerullo-DP0050d</t>
+  </si>
+  <si>
+    <t>85037263</t>
+  </si>
+  <si>
+    <t>Crossroads-DP0050d</t>
+  </si>
+  <si>
+    <t>85037264</t>
+  </si>
+  <si>
+    <t>Please select...-DP0050d</t>
+  </si>
+  <si>
+    <t>85037265</t>
+  </si>
+  <si>
+    <t>Nuvitru Wellness-DP0050d</t>
+  </si>
+  <si>
+    <t>85037266</t>
+  </si>
+  <si>
+    <t>Elizabeth Pimentel-DP0050d</t>
+  </si>
+  <si>
+    <t>85037267</t>
+  </si>
+  <si>
+    <t>Alexis Rheinwald-Jones-DP0050d</t>
+  </si>
+  <si>
+    <t>85037268</t>
+  </si>
+  <si>
+    <t>Blue Gem Music, LLC-DP0050d</t>
+  </si>
+  <si>
+    <t>85037269</t>
+  </si>
+  <si>
+    <t>Jennifer Gauss-DP0050d</t>
+  </si>
+  <si>
+    <t>85037270</t>
+  </si>
+  <si>
+    <t>Margaret Geagan-DP0050d</t>
+  </si>
+  <si>
+    <t>85037271</t>
+  </si>
+  <si>
+    <t>University of Minnesota-College of Pharmacy-DP0050d</t>
+  </si>
+  <si>
+    <t>85037272</t>
+  </si>
+  <si>
+    <t>Lanae Wiater-DP0050d</t>
+  </si>
+  <si>
+    <t>85037273</t>
+  </si>
+  <si>
+    <t>Danielle Perrodin-DP0050d</t>
+  </si>
+  <si>
+    <t>85037274</t>
+  </si>
+  <si>
+    <t>Obugo Douglas-DP0050d</t>
+  </si>
+  <si>
+    <t>85037275</t>
+  </si>
+  <si>
+    <t>Kristi Schlacht-DP0050d</t>
+  </si>
+  <si>
+    <t>85037276</t>
+  </si>
+  <si>
+    <t>Lori Krustchinsky-DP0050d</t>
+  </si>
+  <si>
+    <t>85037277</t>
+  </si>
+  <si>
+    <t>Melissa De Brito-DP0050d</t>
+  </si>
+  <si>
+    <t>85037278</t>
+  </si>
+  <si>
+    <t>Jessica Beal-DP0050d</t>
+  </si>
+  <si>
+    <t>85037279</t>
+  </si>
+  <si>
+    <t>Christine Williams-DP0050d</t>
+  </si>
+  <si>
+    <t>85037280</t>
+  </si>
+  <si>
+    <t>Cross Comber-DP0050d</t>
+  </si>
+  <si>
+    <t>85037281</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,7 +270,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -384,11 +593,464 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.73828125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="50.19140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.95703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.6015625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>